--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\Instagram-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7E987-47DD-4290-82EB-446F5DDEB1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89C335-C62E-46E6-A054-88AB299D00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3830" yWindow="2140" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Day</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Created project structure, added responsive layout content and set it up.</t>
+  </si>
+  <si>
+    <t>Added textInputFields and created loginScreen file and configured firebase.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,10 +432,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B3" s="6">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\Instagram-Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89C335-C62E-46E6-A054-88AB299D00B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918D1ECD-3623-43D9-ADEC-AB60B4503139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3830" yWindow="2140" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Day</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Added textInputFields and created loginScreen file and configured firebase.</t>
+  </si>
+  <si>
+    <t>Created authRepo, authController, firebase instance providers, utilities having imagePIcker and showSnackBar, created and worked on SignUpScreen and setup functions.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +449,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B4" s="3">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918D1ECD-3623-43D9-ADEC-AB60B4503139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C4A8B-FC12-43C0-8ECA-6E5271832114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3830" yWindow="2140" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4150" yWindow="3480" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Day</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Created authRepo, authController, firebase instance providers, utilities having imagePIcker and showSnackBar, created and worked on SignUpScreen and setup functions.</t>
+  </si>
+  <si>
+    <t>Created storageMethods and brought app to working state with all the previously implemented features.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +466,18 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>45227</v>
+      </c>
+      <c r="B5" s="3">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189C4A8B-FC12-43C0-8ECA-6E5271832114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6DA9F-767E-4295-AC1D-0E6844235837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4150" yWindow="3480" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Created storageMethods and brought app to working state with all the previously implemented features.</t>
+  </si>
+  <si>
+    <t>Persistence auth implementation</t>
+  </si>
+  <si>
+    <t>Fixed bugs, added userProvider, changed project strucutre (total revamp) and finished persistent authentication</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,10 +486,32 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>45201</v>
+      </c>
+      <c r="B6" s="3">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>45201</v>
+      </c>
+      <c r="B7" s="3">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A6DA9F-767E-4295-AC1D-0E6844235837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C526D4F-FDAF-4267-A82E-08D9285E80C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4150" yWindow="3480" windowWidth="19200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1040" windowWidth="15470" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Fixed bugs, added userProvider, changed project strucutre (total revamp) and finished persistent authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added postImage screen, setup backend for posts, tabBar. Created post model and started feed Screen work. </t>
   </si>
 </sst>
 </file>
@@ -403,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,7 +517,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>45236</v>
+      </c>
+      <c r="B8" s="3">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:4" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C526D4F-FDAF-4267-A82E-08D9285E80C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC233566-A539-46AA-9091-2C2A24589BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1040" windowWidth="15470" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added postImage screen, setup backend for posts, tabBar. Created post model and started feed Screen work. </t>
+  </si>
+  <si>
+    <t>Finished feedScreen, added stream for user posts on the feed. Created like animation and added feature to like posts. Worked on PostCard</t>
   </si>
 </sst>
 </file>
@@ -406,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,6 +533,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B9" s="3">
+        <v>83</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:4" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC233566-A539-46AA-9091-2C2A24589BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FDEC6-8C08-4B24-B6A4-E773560A1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1040" windowWidth="15470" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Day</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Finished feedScreen, added stream for user posts on the feed. Created like animation and added feature to like posts. Worked on PostCard</t>
+  </si>
+  <si>
+    <t>Finished postCard, added feature to like posts and created animation widget for the same.</t>
+  </si>
+  <si>
+    <t>Created profile screen, and setup reusable widgets for profile screen.</t>
+  </si>
+  <si>
+    <t>Finished UI for profile screen</t>
+  </si>
+  <si>
+    <t>Created repository functions for folloiwing, finished profile screen and impleneted responsive web layout for browsers!</t>
   </si>
 </sst>
 </file>
@@ -409,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -547,7 +559,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B10" s="3">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B11" s="3">
+        <v>52</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B13" s="3">
+        <v>83</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" s="4" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>

--- a/Project_TS_Log.xlsx
+++ b/Project_TS_Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\instagram_clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FlutterProjects\GitHUBRepos\Instagram-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FDEC6-8C08-4B24-B6A4-E773560A1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA0E94-AC81-489D-81D1-59F3573EFC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1040" windowWidth="15470" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,10 +69,10 @@
     <t>Created profile screen, and setup reusable widgets for profile screen.</t>
   </si>
   <si>
-    <t>Finished UI for profile screen</t>
-  </si>
-  <si>
     <t>Created repository functions for folloiwing, finished profile screen and impleneted responsive web layout for browsers!</t>
+  </si>
+  <si>
+    <t>Added feature to comment on posts and created the comment screen which reflects changes dynamically.</t>
   </si>
 </sst>
 </file>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +581,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -595,7 +595,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
